--- a/src/analysis/python/data/speaker_biographies.xlsx
+++ b/src/analysis/python/data/speaker_biographies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E56222-2BE1-814E-A3DD-AFB4DF07DD54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589C140B-DAB0-DC41-AA97-FC1803CA5E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="17160" windowWidth="27640" windowHeight="16940" xr2:uid="{855F3AE5-E422-F74E-B89D-2C92906F7EEF}"/>
+    <workbookView xWindow="4660" yWindow="22060" windowWidth="27640" windowHeight="16940" xr2:uid="{855F3AE5-E422-F74E-B89D-2C92906F7EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="439">
   <si>
     <t>year_of_birth</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Harvard Business School</t>
   </si>
   <si>
-    <t>MBA </t>
-  </si>
-  <si>
     <t>Operations and payment system</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>University of Michigan</t>
   </si>
   <si>
-    <t>PhD in finance</t>
-  </si>
-  <si>
     <t>Financial deregulation</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
   </si>
   <si>
     <t>Georgetown University</t>
-  </si>
-  <si>
-    <t>Degree in law</t>
   </si>
   <si>
     <t>https://www.federalreservehistory.org/people/robert_p_forrestal?WT.si_n=Search&amp;amp;WT.si_x=3</t>
@@ -606,9 +597,6 @@
     <t>1992-1997</t>
   </si>
   <si>
-    <t>PhD. in public policy</t>
-  </si>
-  <si>
     <t>https://www.newyorkfed.org/newsevents/news/aboutthefed/1999/oa990803</t>
   </si>
   <si>
@@ -671,9 +659,6 @@
   </si>
   <si>
     <t>First Vice President and COO,1961-1995</t>
-  </si>
-  <si>
-    <t>Legel counsel Fed NY</t>
   </si>
   <si>
     <t>1961-1995</t>
@@ -1365,16 +1350,44 @@
   </si>
   <si>
     <t>full_name</t>
+  </si>
+  <si>
+    <t>d_black</t>
+  </si>
+  <si>
+    <t>d_female</t>
+  </si>
+  <si>
+    <t>Legal counsel Fed NY</t>
+  </si>
+  <si>
+    <t>PhD in public policy</t>
+  </si>
+  <si>
+    <t>d_phd</t>
+  </si>
+  <si>
+    <t>d_master</t>
+  </si>
+  <si>
+    <t>Law degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1400,8 +1413,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,20 +1730,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D4CC69-BB57-DA4A-9489-70CA00F1C57E}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="135.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="38.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1771,24 +1790,36 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>432</v>
+      </c>
+      <c r="V1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C2">
         <v>1949</v>
@@ -1821,24 +1852,36 @@
         <v>24</v>
       </c>
       <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C3">
         <v>1939</v>
@@ -1853,7 +1896,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -1876,19 +1919,31 @@
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="R3" t="s">
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C4">
         <v>1930</v>
@@ -1927,24 +1982,36 @@
         <v>24</v>
       </c>
       <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>45</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C5">
         <v>1940</v>
@@ -1986,24 +2053,36 @@
         <v>24</v>
       </c>
       <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>54</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>55</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C6">
         <v>1941</v>
@@ -2035,19 +2114,31 @@
       <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" t="s">
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
         <v>61</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C7">
         <v>1926</v>
@@ -2088,16 +2179,28 @@
       <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="S7" t="s">
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C8">
         <v>1932</v>
@@ -2130,27 +2233,39 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
         <v>77</v>
       </c>
-      <c r="R8" t="s">
+      <c r="U8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" t="s">
         <v>78</v>
       </c>
-      <c r="S8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C9">
         <v>1932</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -2162,198 +2277,246 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
         <v>81</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
         <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
       </c>
       <c r="L9" t="s">
         <v>34</v>
       </c>
       <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
         <v>85</v>
       </c>
-      <c r="O9" t="s">
+      <c r="U9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" t="s">
         <v>86</v>
       </c>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C10">
         <v>1941</v>
       </c>
       <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>91</v>
-      </c>
-      <c r="I10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
-      <c r="R10" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C11">
         <v>1927</v>
       </c>
       <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
         <v>100</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>102</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
       </c>
-      <c r="R11" t="s">
-        <v>103</v>
-      </c>
-      <c r="S11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C12">
         <v>1931</v>
       </c>
       <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>109</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>110</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" t="s">
         <v>111</v>
       </c>
-      <c r="N12" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C13">
         <v>1928</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -2368,45 +2531,57 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N13" t="s">
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
-      </c>
-      <c r="R13" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C14">
         <v>1944</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -2415,45 +2590,57 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>101</v>
+      </c>
+      <c r="U14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" t="s">
         <v>123</v>
       </c>
-      <c r="N14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" t="s">
-        <v>125</v>
-      </c>
-      <c r="R14" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C15">
         <v>1930</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -2462,77 +2649,101 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
       </c>
       <c r="M15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" t="s">
         <v>130</v>
       </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" t="s">
-        <v>132</v>
-      </c>
-      <c r="S15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C16">
         <v>1943</v>
       </c>
       <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
         <v>135</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>138</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
       </c>
-      <c r="S16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C17">
         <v>1929</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -2541,51 +2752,63 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" t="s">
         <v>141</v>
       </c>
-      <c r="I17" t="s">
+      <c r="N17" t="s">
         <v>142</v>
       </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
+        <v>438</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>101</v>
+      </c>
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" t="s">
         <v>143</v>
       </c>
-      <c r="L17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" t="s">
-        <v>113</v>
-      </c>
-      <c r="R17" t="s">
-        <v>103</v>
-      </c>
-      <c r="S17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C18">
         <v>1944</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -2594,133 +2817,169 @@
         <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
         <v>67</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O18" t="s">
         <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
       </c>
       <c r="R18" t="s">
+        <v>148</v>
+      </c>
+      <c r="T18" t="s">
         <v>61</v>
       </c>
-      <c r="S18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C19">
         <v>1941</v>
       </c>
       <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
         <v>154</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>157</v>
       </c>
       <c r="O19" t="s">
         <v>24</v>
       </c>
-      <c r="R19" t="s">
-        <v>158</v>
-      </c>
-      <c r="S19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C20">
         <v>1926</v>
       </c>
       <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
         <v>160</v>
       </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="O20" t="s">
+        <v>438</v>
+      </c>
+      <c r="P20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
         <v>162</v>
       </c>
-      <c r="I20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" t="s">
-        <v>164</v>
-      </c>
-      <c r="O20" t="s">
-        <v>113</v>
-      </c>
-      <c r="S20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C21">
         <v>1946</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -2732,42 +2991,54 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
         <v>167</v>
       </c>
-      <c r="I21" t="s">
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
         <v>168</v>
       </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" t="s">
         <v>169</v>
       </c>
-      <c r="O21" t="s">
-        <v>170</v>
-      </c>
-      <c r="P21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>171</v>
-      </c>
-      <c r="S21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C22">
         <v>1976</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -2779,42 +3050,54 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
         <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="Q22" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="R22" t="s">
+        <v>128</v>
       </c>
       <c r="S22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="U22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C23">
         <v>1944</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -2826,86 +3109,110 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" t="s">
+        <v>178</v>
+      </c>
+      <c r="O23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" t="s">
         <v>179</v>
       </c>
-      <c r="I23" t="s">
+      <c r="S23" t="s">
         <v>180</v>
       </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="T23" t="s">
         <v>181</v>
       </c>
-      <c r="O23" t="s">
-        <v>170</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="U23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" t="s">
         <v>182</v>
       </c>
-      <c r="Q23" t="s">
-        <v>183</v>
-      </c>
-      <c r="R23" t="s">
-        <v>184</v>
-      </c>
-      <c r="S23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C24">
         <v>1967</v>
       </c>
       <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" t="s">
         <v>186</v>
       </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" t="s">
+        <v>435</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" t="s">
         <v>187</v>
       </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" t="s">
-        <v>190</v>
-      </c>
-      <c r="S24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C25">
         <v>1946</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -2914,312 +3221,396 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
         <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
       </c>
-      <c r="R25" t="s">
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" t="s">
         <v>61</v>
       </c>
-      <c r="S25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C26">
         <v>1941</v>
       </c>
       <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
         <v>197</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>199</v>
-      </c>
-      <c r="I26" t="s">
-        <v>200</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>201</v>
       </c>
       <c r="L26" t="s">
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="R26" t="s">
+        <v>199</v>
+      </c>
+      <c r="S26" t="s">
+        <v>200</v>
+      </c>
+      <c r="T26" t="s">
         <v>61</v>
       </c>
-      <c r="S26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>18</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C27">
         <v>1942</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
         <v>18</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
-      </c>
-      <c r="S27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>205</v>
+      </c>
+      <c r="U27" t="s">
+        <v>18</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C28">
         <v>1931</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
-      </c>
-      <c r="S28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>18</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C29">
         <v>1934</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O29" t="s">
-        <v>221</v>
-      </c>
-      <c r="S29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C30">
         <v>1942</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
       </c>
-      <c r="S30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>18</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C31">
         <v>1939</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
         <v>24</v>
       </c>
-      <c r="S31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>18</v>
+      </c>
+      <c r="U31" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B32" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C32">
         <v>1945</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -3231,39 +3622,51 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
       <c r="N32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O32" t="s">
         <v>24</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Q32" t="s">
-        <v>236</v>
+        <v>18</v>
+      </c>
+      <c r="R32" t="s">
+        <v>230</v>
       </c>
       <c r="S32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="U32" t="s">
+        <v>18</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C33">
         <v>1946</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -3275,133 +3678,169 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
         <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s">
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="Q33" t="s">
-        <v>242</v>
+        <v>18</v>
+      </c>
+      <c r="R33" t="s">
+        <v>236</v>
       </c>
       <c r="S33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="U33" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C34">
         <v>1947</v>
       </c>
       <c r="D34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s">
+        <v>18</v>
+      </c>
+      <c r="V34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" t="s">
         <v>244</v>
       </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" t="s">
-        <v>248</v>
-      </c>
-      <c r="O34" t="s">
-        <v>132</v>
-      </c>
-      <c r="S34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C35">
         <v>1938</v>
       </c>
       <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="s">
         <v>250</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>251</v>
-      </c>
-      <c r="I35" t="s">
-        <v>252</v>
-      </c>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" t="s">
-        <v>253</v>
-      </c>
-      <c r="L35" t="s">
-        <v>254</v>
-      </c>
-      <c r="M35" t="s">
-        <v>255</v>
       </c>
       <c r="N35" t="s">
         <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P35" t="s">
-        <v>257</v>
-      </c>
-      <c r="S35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" t="s">
+        <v>252</v>
+      </c>
+      <c r="U35" t="s">
+        <v>18</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C36">
         <v>1944</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -3416,39 +3855,51 @@
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
         <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O36" t="s">
         <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="Q36" t="s">
-        <v>262</v>
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>256</v>
       </c>
       <c r="S36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="U36" t="s">
+        <v>18</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C37">
         <v>1931</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -3460,80 +3911,104 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
         <v>24</v>
       </c>
       <c r="P37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" t="s">
-        <v>267</v>
-      </c>
       <c r="S37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="U37" t="s">
+        <v>18</v>
+      </c>
+      <c r="V37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C38">
         <v>1943</v>
       </c>
       <c r="D38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>265</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" t="s">
+        <v>267</v>
+      </c>
+      <c r="O38" t="s">
+        <v>268</v>
+      </c>
+      <c r="P38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" t="s">
+        <v>18</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W38" t="s">
         <v>269</v>
       </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s">
-        <v>270</v>
-      </c>
-      <c r="I38" t="s">
-        <v>271</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" t="s">
-        <v>272</v>
-      </c>
-      <c r="O38" t="s">
-        <v>273</v>
-      </c>
-      <c r="S38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B39" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C39">
         <v>1951</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -3545,36 +4020,48 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
         <v>67</v>
       </c>
       <c r="M39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
-      </c>
-      <c r="S39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="P39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B40" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C40">
         <v>1939</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -3583,89 +4070,113 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="Q40" t="s">
-        <v>282</v>
+        <v>18</v>
+      </c>
+      <c r="R40" t="s">
+        <v>84</v>
       </c>
       <c r="S40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="U40" t="s">
+        <v>18</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B41" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C41">
         <v>1937</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="Q41" t="s">
-        <v>289</v>
+        <v>18</v>
+      </c>
+      <c r="R41" t="s">
+        <v>283</v>
       </c>
       <c r="S41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="U41" t="s">
+        <v>18</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C42">
         <v>1943</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -3677,101 +4188,125 @@
         <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
         <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s">
-        <v>295</v>
-      </c>
-      <c r="S42" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="P42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>18</v>
+      </c>
+      <c r="U42" t="s">
+        <v>18</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C43">
         <v>1947</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s">
         <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s">
         <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="Q43" t="s">
-        <v>303</v>
+        <v>18</v>
+      </c>
+      <c r="R43" t="s">
+        <v>297</v>
       </c>
       <c r="S43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="U43" t="s">
+        <v>18</v>
+      </c>
+      <c r="V43" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C44">
         <v>1946</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
@@ -3780,33 +4315,45 @@
         <v>18</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
       </c>
       <c r="P44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>18</v>
+      </c>
+      <c r="R44" t="s">
         <v>35</v>
       </c>
-      <c r="Q44" t="s">
-        <v>307</v>
-      </c>
       <c r="S44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="U44" t="s">
+        <v>18</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C45">
         <v>1953</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -3818,201 +4365,261 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
         <v>18</v>
       </c>
       <c r="N45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="s">
-        <v>313</v>
+        <v>18</v>
+      </c>
+      <c r="R45" t="s">
+        <v>307</v>
       </c>
       <c r="S45" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="U45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C46">
         <v>1961</v>
       </c>
       <c r="D46" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>312</v>
+      </c>
+      <c r="I46" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" t="s">
         <v>315</v>
       </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="P46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" t="s">
+        <v>18</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W46" t="s">
         <v>316</v>
       </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" t="s">
-        <v>318</v>
-      </c>
-      <c r="J46" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" t="s">
-        <v>319</v>
-      </c>
-      <c r="O46" t="s">
-        <v>320</v>
-      </c>
-      <c r="S46" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C47">
         <v>1954</v>
       </c>
       <c r="D47" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
       </c>
       <c r="N47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O47" t="s">
-        <v>325</v>
-      </c>
-      <c r="S47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" t="s">
+        <v>18</v>
+      </c>
+      <c r="V47" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C48">
         <v>1949</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J48" t="s">
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s">
         <v>34</v>
       </c>
       <c r="N48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O48" t="s">
-        <v>132</v>
-      </c>
-      <c r="S48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" t="s">
+        <v>18</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C49">
         <v>1955</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="Q49" t="s">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="R49" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="S49" t="s">
-        <v>338</v>
+        <v>331</v>
+      </c>
+      <c r="T49" t="s">
+        <v>332</v>
+      </c>
+      <c r="U49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W49" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
